--- a/classification/droptc/sentence/neo-bert/unfreeze/43782163/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/unfreeze/43782163/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.400369256734848</v>
+        <v>0.9809181690216064</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994603991508484</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9714115858078003</v>
+        <v>0.9337430000305176</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.998166561126709</v>
+        <v>0.9995947480201721</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9759966135025024</v>
+        <v>0.9999939203262329</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9932228326797485</v>
+        <v>0.9998101592063904</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7741792798042297</v>
+        <v>0.9999862909317017</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9981769323348999</v>
+        <v>0.9999780654907227</v>
       </c>
     </row>
     <row r="11">
@@ -735,14 +735,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9922618865966797</v>
+        <v>0.6043010950088501</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9935399889945984</v>
+        <v>0.9999957084655762</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9989435076713562</v>
+        <v>0.9992632269859314</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.9951404333114624</v>
       </c>
     </row>
     <row r="15">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9899563789367676</v>
+        <v>0.5188958644866943</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9972278475761414</v>
+        <v>0.9999324083328247</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9962052702903748</v>
+        <v>0.9999923706054688</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9837787747383118</v>
+        <v>0.998640239238739</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9978950023651123</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9788094162940979</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9298333525657654</v>
+        <v>0.999985933303833</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5171422958374023</v>
+        <v>0.9998600482940674</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7280588746070862</v>
+        <v>0.9999982118606567</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6960377097129822</v>
+        <v>0.9999979734420776</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.919954240322113</v>
+        <v>0.9820473194122314</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5291959643363953</v>
+        <v>0.9998288154602051</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9942375421524048</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4427627623081207</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7350432276725769</v>
+        <v>0.9999914169311523</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9904796481132507</v>
+        <v>0.9999971389770508</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9992735981941223</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9438076615333557</v>
+        <v>0.9999889135360718</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9873499274253845</v>
+        <v>0.9999579191207886</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9104753136634827</v>
+        <v>0.99620121717453</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9598640203475952</v>
+        <v>0.9999877214431763</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.648395836353302</v>
+        <v>0.999996542930603</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9681937694549561</v>
+        <v>0.9999966621398926</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9178034663200378</v>
+        <v>0.9999991655349731</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9968388080596924</v>
+        <v>0.9080231785774231</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9986749291419983</v>
+        <v>0.9726803302764893</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9969968795776367</v>
+        <v>0.9999986886978149</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9474050998687744</v>
+        <v>0.6395109295845032</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9987971782684326</v>
+        <v>0.9001994132995605</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9701507091522217</v>
+        <v>0.9999096393585205</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9120476841926575</v>
+        <v>0.9999967813491821</v>
       </c>
     </row>
     <row r="46">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6935786604881287</v>
+        <v>0.9993247985839844</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7389382719993591</v>
+        <v>0.4270160496234894</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9993047714233398</v>
+        <v>0.9999614953994751</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.963677704334259</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.999913215637207</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7305692434310913</v>
+        <v>0.9672201871871948</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9631800651550293</v>
+        <v>0.9999549388885498</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9965937733650208</v>
+        <v>0.999913215637207</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.992367684841156</v>
+        <v>0.9999247789382935</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9975278973579407</v>
+        <v>0.9999984502792358</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9320253133773804</v>
+        <v>0.9999990463256836</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9981131553649902</v>
+        <v>0.9999972581863403</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9969393014907837</v>
+        <v>0.9999804496765137</v>
       </c>
     </row>
     <row r="59">
@@ -2079,14 +2079,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4724045693874359</v>
+        <v>0.9999667406082153</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9939829707145691</v>
+        <v>0.9999512434005737</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9825592041015625</v>
+        <v>0.9999735355377197</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9493041634559631</v>
+        <v>0.9999936819076538</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9966607093811035</v>
+        <v>0.9999390840530396</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8066931962966919</v>
+        <v>0.7772873640060425</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9862307906150818</v>
+        <v>0.9999880790710449</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9342726469039917</v>
+        <v>0.9999880790710449</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9627595543861389</v>
+        <v>0.999908447265625</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9215989112854004</v>
+        <v>0.9999880790710449</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8945258259773254</v>
+        <v>0.9999749660491943</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8582833409309387</v>
+        <v>0.9999974966049194</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8341737985610962</v>
+        <v>0.9999727010726929</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9880319833755493</v>
+        <v>0.9999566078186035</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9851729869842529</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9549420475959778</v>
+        <v>0.9999403953552246</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3535005748271942</v>
+        <v>0.999985933303833</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9988027811050415</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9842790961265564</v>
+        <v>0.9999444484710693</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9976723790168762</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9797776937484741</v>
+        <v>0.9999992847442627</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9986625909805298</v>
+        <v>0.9999872446060181</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9395502209663391</v>
+        <v>0.9993942975997925</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9730989336967468</v>
+        <v>0.9999872446060181</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9844851493835449</v>
+        <v>0.9996820688247681</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9111343622207642</v>
+        <v>0.9996820688247681</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9993047714233398</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9681937694549561</v>
+        <v>0.9999772310256958</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.9996153116226196</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9978741407394409</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9986650943756104</v>
+        <v>0.9996587038040161</v>
       </c>
     </row>
     <row r="90">
@@ -2947,14 +2947,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8096320033073425</v>
+        <v>0.9999994039535522</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4857818782329559</v>
+        <v>0.9999994039535522</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9911761283874512</v>
+        <v>0.9999992847442627</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4753799736499786</v>
+        <v>0.9999991655349731</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9630771279335022</v>
+        <v>0.9999990463256836</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8997388482093811</v>
+        <v>0.9999990463256836</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9797123670578003</v>
+        <v>0.9999988079071045</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6466505527496338</v>
+        <v>0.9998093247413635</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9986348748207092</v>
+        <v>0.9999986886978149</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9961743354797363</v>
+        <v>0.9591099619865417</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7644978761672974</v>
+        <v>0.9999125003814697</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5520912408828735</v>
+        <v>0.9999719858169556</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9913696050643921</v>
+        <v>0.8817234039306641</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.9977915287017822</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8875423073768616</v>
+        <v>0.9999992847442627</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5605630874633789</v>
+        <v>0.9999935626983643</v>
       </c>
     </row>
     <row r="106">
@@ -3395,14 +3395,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4546982645988464</v>
+        <v>0.9999967813491821</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9950240254402161</v>
+        <v>0.9999473094940186</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9865694642066956</v>
+        <v>0.9999425411224365</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9768925905227661</v>
+        <v>0.9999910593032837</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9741520881652832</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6058768630027771</v>
+        <v>0.9999763965606689</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9777085185050964</v>
+        <v>0.9999289512634277</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8848415017127991</v>
+        <v>0.9999532699584961</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8334965705871582</v>
+        <v>0.9999957084655762</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9860467314720154</v>
+        <v>0.9993175268173218</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9993759989738464</v>
+        <v>0.9959881901741028</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9984887838363647</v>
+        <v>0.999639630317688</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5668669939041138</v>
+        <v>0.64983731508255</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9951487183570862</v>
+        <v>0.7877384424209595</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9631800651550293</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9935076236724854</v>
+        <v>0.9999626874923706</v>
       </c>
     </row>
     <row r="122">
@@ -3843,14 +3843,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6652172803878784</v>
+        <v>0.9999996423721313</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9635001420974731</v>
+        <v>0.9999626874923706</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6277399659156799</v>
+        <v>0.9999996423721313</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9928508996963501</v>
+        <v>0.9999626874923706</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9351426959037781</v>
+        <v>0.9999985694885254</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9936673045158386</v>
+        <v>0.9041963219642639</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.652492880821228</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9527274370193481</v>
+        <v>0.9989928603172302</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9881781935691833</v>
+        <v>0.9567994475364685</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9503345489501953</v>
+        <v>0.9999967813491821</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9881836771965027</v>
+        <v>0.7099420428276062</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9896999597549438</v>
+        <v>0.9996529817581177</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6571842432022095</v>
+        <v>0.9967208504676819</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9913510084152222</v>
+        <v>0.9999972581863403</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9825244545936584</v>
+        <v>0.9998646974563599</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9993533492088318</v>
+        <v>0.9999876022338867</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.994742751121521</v>
+        <v>0.9957273006439209</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.96719890832901</v>
+        <v>0.9999959468841553</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9733298420906067</v>
+        <v>0.9999899864196777</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9979597330093384</v>
+        <v>0.6641846299171448</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8541195392608643</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9352855682373047</v>
+        <v>0.9999604225158691</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6520746946334839</v>
+        <v>0.999998927116394</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9630771279335022</v>
+        <v>0.9999604225158691</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9958850741386414</v>
+        <v>0.999990701675415</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5085774660110474</v>
+        <v>0.9999749660491943</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9973449110984802</v>
+        <v>0.999995231628418</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9620446562767029</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.4635250270366669</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8796638250350952</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.941597580909729</v>
+        <v>0.3983817100524902</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9825592041015625</v>
+        <v>0.9999988079071045</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9893635511398315</v>
+        <v>0.999966025352478</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9922618865966797</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5290895104408264</v>
+        <v>0.9999607801437378</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8534730076789856</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9814544320106506</v>
+        <v>0.9999701976776123</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.992367684841156</v>
+        <v>0.9999996423721313</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.5206830501556396</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9449262022972107</v>
+        <v>0.9999920129776001</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9825244545936584</v>
+        <v>0.999990701675415</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9959742426872253</v>
+        <v>0.9994484782218933</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9968795776367188</v>
+        <v>0.9999359846115112</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5538846850395203</v>
+        <v>0.9999997615814209</v>
       </c>
     </row>
     <row r="166">
@@ -5075,14 +5075,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5539215803146362</v>
+        <v>0.9956919550895691</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2369653582572937</v>
+        <v>0.9999911785125732</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9922618865966797</v>
+        <v>0.8610522747039795</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7577829360961914</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8477317094802856</v>
+        <v>0.9999911785125732</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9979390501976013</v>
+        <v>0.9993398785591125</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9808098673820496</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9297892451286316</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9974201917648315</v>
+        <v>0.999995231628418</v>
       </c>
     </row>
     <row r="175">
@@ -5327,14 +5327,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.7972008585929871</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9987971782684326</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9777085185050964</v>
+        <v>0.999995231628418</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9918574690818787</v>
+        <v>0.9999986886978149</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5803751945495605</v>
+        <v>0.9999735355377197</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5764550566673279</v>
+        <v>0.999988317489624</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9417523145675659</v>
+        <v>0.9999967813491821</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9624836444854736</v>
+        <v>0.9999996423721313</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9942375421524048</v>
+        <v>0.9999837875366211</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.897122323513031</v>
+        <v>0.9999998807907104</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.9999959468841553</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9169386029243469</v>
+        <v>0.9999971389770508</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9459973573684692</v>
+        <v>0.9999880790710449</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9987971782684326</v>
+        <v>0.999996542930603</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9641249179840088</v>
+        <v>0.9999880790710449</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.7079780101776123</v>
+        <v>0.9999945163726807</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9637086987495422</v>
+        <v>0.9992523789405823</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9992526173591614</v>
+        <v>0.999998927116394</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9949384927749634</v>
+        <v>0.9999768733978271</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9935674071311951</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9982542395591736</v>
+        <v>0.9996886253356934</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9537965059280396</v>
+        <v>0.9999985694885254</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9961963891983032</v>
+        <v>0.9999918937683105</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5142717361450195</v>
+        <v>0.9999958276748657</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9961743354797363</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9932956099510193</v>
+        <v>0.9547272920608521</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9631800651550293</v>
+        <v>0.9999969005584717</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.998085618019104</v>
+        <v>0.9999986886978149</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.988137423992157</v>
+        <v>0.9999583959579468</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9983922839164734</v>
+        <v>0.999852180480957</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9980496168136597</v>
+        <v>0.9995336532592773</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9993047714233398</v>
+        <v>0.9999759197235107</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9895558953285217</v>
+        <v>0.9998371601104736</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.6960377097129822</v>
+        <v>0.9999842643737793</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9314973950386047</v>
+        <v>0.9950041174888611</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9874316453933716</v>
+        <v>0.9999938011169434</v>
       </c>
     </row>
   </sheetData>
